--- a/7R_mart_supermarkert/src/main/resources/TestData.xlsx
+++ b/7R_mart_supermarkert/src/main/resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\NEW-REPOSITORY\7R_mart_supermarkert\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063E706-6C91-4EAC-97A0-A13FDA913265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430B2B36-2F23-4CD1-9A40-9DFA203C9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C35A8AD0-68B7-4B98-8E18-374E2BF21C2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{C35A8AD0-68B7-4B98-8E18-374E2BF21C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpagetest" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPageTest" sheetId="2" r:id="rId2"/>
+    <sheet name="Manage_news" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>user_name</t>
   </si>
@@ -41,16 +42,45 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Admin_username</t>
+  </si>
+  <si>
+    <t>Admin_password</t>
+  </si>
+  <si>
+    <t>User_type</t>
+  </si>
+  <si>
+    <t>Tressa</t>
+  </si>
+  <si>
+    <t>tressa@123</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Obsqura offers job-oriented training in manual and automation testing with 100% placement assurance. Hands-on Learning. Sessions are handled by Industry experts. Start your learning today! As one of the leading Software Testing Training Institutes in Kerala, we provide both manual and automation testing courses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,13 +103,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,14 +490,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A41AF6-98DB-42BA-9549-6FE0D8433421}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{26C755C7-25EB-48E6-8981-D61170F85401}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C847DFF7-D82B-4D05-BF41-8A85446ED2C0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7R_mart_supermarkert/src/main/resources/TestData.xlsx
+++ b/7R_mart_supermarkert/src/main/resources/TestData.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\NEW-REPOSITORY\7R_mart_supermarkert\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430B2B36-2F23-4CD1-9A40-9DFA203C9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1417592A-2E49-4BD7-92BB-53D4188BD39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{C35A8AD0-68B7-4B98-8E18-374E2BF21C2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{C35A8AD0-68B7-4B98-8E18-374E2BF21C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpagetest" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPageTest" sheetId="2" r:id="rId2"/>
     <sheet name="Manage_news" sheetId="3" r:id="rId3"/>
+    <sheet name="Admin_Search" sheetId="4" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" r:id="rId5"/>
+    <sheet name="Manage_Category" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>user_name</t>
   </si>
@@ -63,6 +66,21 @@
   </si>
   <si>
     <t>Obsqura offers job-oriented training in manual and automation testing with 100% placement assurance. Hands-on Learning. Sessions are handled by Industry experts. Start your learning today! As one of the leading Software Testing Training Institutes in Kerala, we provide both manual and automation testing courses</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>userType</t>
+  </si>
+  <si>
+    <t>Obsqura</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Ring</t>
   </si>
 </sst>
 </file>
@@ -537,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C847DFF7-D82B-4D05-BF41-8A85446ED2C0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,4 +577,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCA5D4D-2304-49F5-9D28-CBCC1BC6B831}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56963888-4AA3-4605-BE39-B07875E9523E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40556A8D-A2A9-4A5A-8172-BE2F509010F6}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>